--- a/Football_Data/Programming/Snippets/Football_Data/Chelsea.xlsx
+++ b/Football_Data/Programming/Snippets/Football_Data/Chelsea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1815,6 +1815,59 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Matchweek 27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Away</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>3-5-2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Jarred Gillett</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Football_Data/Programming/Snippets/Football_Data/Chelsea.xlsx
+++ b/Football_Data/Programming/Snippets/Football_Data/Chelsea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1868,6 +1868,59 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Matchweek 28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Newcastle Utd</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>4-2-3-1</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>John Brooks</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
